--- a/Assets/AssetsDevelop/ConfigExcels/IncreaseConfig.xlsx
+++ b/Assets/AssetsDevelop/ConfigExcels/IncreaseConfig.xlsx
@@ -996,7 +996,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.9" outlineLevelRow="3" outlineLevelCol="4"/>
